--- a/3조 예상 간트 차트.xlsx
+++ b/3조 예상 간트 차트.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\간트차트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="2" r:id="rId1"/>
@@ -379,7 +379,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +456,11 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1573,7 +1578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1790,9 +1795,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1820,19 +1822,49 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1889,19 +1921,16 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2195,67 +2224,67 @@
   </sheetPr>
   <dimension ref="B1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S39" sqref="S39"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="79.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="79.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="11" width="8.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.25" style="1" customWidth="1"/>
-    <col min="15" max="17" width="7.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="8.09765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.8984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.19921875" style="1" customWidth="1"/>
+    <col min="15" max="17" width="7.8984375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.69921875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.19921875" style="1" customWidth="1"/>
     <col min="20" max="20" width="27" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="90" t="s">
+    <row r="1" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="96" t="s">
+      <c r="C1" s="100"/>
+      <c r="D1" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="99" t="s">
+      <c r="F1" s="109"/>
+      <c r="G1" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="102" t="s">
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="87" t="s">
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="96" t="s">
         <v>0</v>
       </c>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="92"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="97"/>
+    <row r="2" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
@@ -2298,13 +2327,13 @@
       <c r="R2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="88"/>
+      <c r="S2" s="97"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="98"/>
+    <row r="3" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="6">
         <v>45265</v>
       </c>
@@ -2347,17 +2376,17 @@
       <c r="R3" s="26">
         <v>45278</v>
       </c>
-      <c r="S3" s="89"/>
+      <c r="S3" s="98"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="82" t="s">
+    <row r="4" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="16"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="39"/>
       <c r="H4" s="40"/>
       <c r="I4" s="40"/>
@@ -2373,12 +2402,12 @@
       <c r="S4" s="18"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="84" t="s">
+    <row r="5" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="44"/>
       <c r="F5" s="47"/>
       <c r="G5" s="50"/>
@@ -2396,7 +2425,7 @@
       <c r="S5" s="49"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="33"/>
       <c r="C6" s="24" t="s">
         <v>24</v>
@@ -2421,7 +2450,7 @@
       <c r="S6" s="18"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="33"/>
       <c r="C7" s="24" t="s">
         <v>25</v>
@@ -2446,7 +2475,7 @@
       <c r="S7" s="18"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="35"/>
       <c r="C8" s="36" t="s">
         <v>26</v>
@@ -2471,12 +2500,12 @@
       <c r="S8" s="55"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="84" t="s">
+    <row r="9" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="50"/>
       <c r="F9" s="11"/>
       <c r="G9" s="50"/>
@@ -2494,7 +2523,7 @@
       <c r="S9" s="56"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="33"/>
       <c r="C10" s="24" t="s">
         <v>27</v>
@@ -2519,7 +2548,7 @@
       <c r="S10" s="19"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="35"/>
       <c r="C11" s="36" t="s">
         <v>29</v>
@@ -2527,8 +2556,8 @@
       <c r="D11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="28"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
@@ -2544,11 +2573,11 @@
       <c r="S11" s="38"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="82" t="s">
+    <row r="12" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="16"/>
       <c r="E12" s="44"/>
       <c r="F12" s="47"/>
@@ -2567,12 +2596,12 @@
       <c r="S12" s="18"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="105" t="s">
+    <row r="13" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="7"/>
       <c r="F13" s="21"/>
       <c r="G13" s="7"/>
@@ -2590,7 +2619,7 @@
       <c r="S13" s="20"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="33"/>
       <c r="C14" s="24" t="s">
         <v>33</v>
@@ -2615,7 +2644,7 @@
       <c r="S14" s="17"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="33"/>
       <c r="C15" s="24" t="s">
         <v>34</v>
@@ -2640,7 +2669,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="33"/>
       <c r="C16" s="24" t="s">
         <v>39</v>
@@ -2665,7 +2694,7 @@
       <c r="S16" s="19"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="33"/>
       <c r="C17" s="24" t="s">
         <v>38</v>
@@ -2690,7 +2719,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="33"/>
       <c r="C18" s="24" t="s">
         <v>40</v>
@@ -2709,13 +2738,13 @@
       <c r="M18" s="3"/>
       <c r="N18" s="5"/>
       <c r="O18" s="57"/>
-      <c r="P18" s="21"/>
+      <c r="P18" s="57"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="5"/>
       <c r="S18" s="19"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="33"/>
       <c r="C19" s="24" t="s">
         <v>35</v>
@@ -2740,7 +2769,7 @@
       <c r="S19" s="19"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="33"/>
       <c r="C20" s="24" t="s">
         <v>36</v>
@@ -2755,9 +2784,9 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
       <c r="O20" s="8"/>
       <c r="P20" s="57"/>
       <c r="Q20" s="57"/>
@@ -2765,7 +2794,7 @@
       <c r="S20" s="19"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="35"/>
       <c r="C21" s="36" t="s">
         <v>37</v>
@@ -2783,19 +2812,19 @@
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="29"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="58"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="83"/>
       <c r="S21" s="38"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="84" t="s">
+    <row r="22" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
       <c r="E22" s="44"/>
       <c r="F22" s="47"/>
       <c r="G22" s="44"/>
@@ -2813,7 +2842,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="33"/>
       <c r="C23" s="24" t="s">
         <v>42</v>
@@ -2838,7 +2867,7 @@
       <c r="S23" s="19"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="33"/>
       <c r="C24" s="24" t="s">
         <v>43</v>
@@ -2863,7 +2892,7 @@
       <c r="S24" s="19"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="33"/>
       <c r="C25" s="24" t="s">
         <v>44</v>
@@ -2888,7 +2917,7 @@
       <c r="S25" s="19"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="33"/>
       <c r="C26" s="24" t="s">
         <v>45</v>
@@ -2913,7 +2942,7 @@
       <c r="S26" s="19"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="33"/>
       <c r="C27" s="24" t="s">
         <v>46</v>
@@ -2938,7 +2967,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="33"/>
       <c r="C28" s="24" t="s">
         <v>47</v>
@@ -2963,7 +2992,7 @@
       <c r="S28" s="19"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="33"/>
       <c r="C29" s="24" t="s">
         <v>86</v>
@@ -2988,7 +3017,7 @@
       <c r="S29" s="19"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="67"/>
       <c r="C30" s="24" t="s">
         <v>48</v>
@@ -3013,7 +3042,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="35"/>
       <c r="C31" s="68" t="s">
         <v>65</v>
@@ -3031,22 +3060,22 @@
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
       <c r="N31" s="29"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="32"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="85"/>
       <c r="Q31" s="32"/>
       <c r="R31" s="29"/>
       <c r="S31" s="38"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="84" t="s">
+    <row r="32" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
       <c r="E32" s="59"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="57"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="115"/>
       <c r="H32" s="61"/>
       <c r="I32" s="61"/>
       <c r="J32" s="61"/>
@@ -3061,7 +3090,7 @@
       <c r="S32" s="64"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="33"/>
       <c r="C33" s="24" t="s">
         <v>52</v>
@@ -3070,9 +3099,9 @@
         <v>55</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="57"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="115"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -3086,7 +3115,7 @@
       <c r="S33" s="17"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="33"/>
       <c r="C34" s="24" t="s">
         <v>53</v>
@@ -3111,7 +3140,7 @@
       <c r="S34" s="19"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="33"/>
       <c r="C35" s="65" t="s">
         <v>69</v>
@@ -3136,7 +3165,7 @@
       <c r="S35" s="19"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="33"/>
       <c r="C36" s="24" t="s">
         <v>54</v>
@@ -3161,7 +3190,7 @@
       <c r="S36" s="20"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="35"/>
       <c r="C37" s="36" t="s">
         <v>67</v>
@@ -3179,18 +3208,18 @@
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
       <c r="N37" s="29"/>
-      <c r="O37" s="108"/>
-      <c r="P37" s="32"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="85"/>
       <c r="Q37" s="32"/>
       <c r="R37" s="29"/>
       <c r="S37" s="38"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="82" t="s">
+    <row r="38" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="83"/>
+      <c r="C38" s="92"/>
       <c r="D38" s="16"/>
       <c r="E38" s="9"/>
       <c r="F38" s="11"/>
@@ -3209,12 +3238,12 @@
       <c r="S38" s="64"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="105" t="s">
+    <row r="39" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
       <c r="E39" s="9"/>
       <c r="F39" s="11"/>
       <c r="G39" s="70"/>
@@ -3232,7 +3261,7 @@
       <c r="S39" s="64"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="33"/>
       <c r="C40" s="24" t="s">
         <v>79</v>
@@ -3250,14 +3279,14 @@
       <c r="L40" s="62"/>
       <c r="M40" s="62"/>
       <c r="N40" s="11"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="60"/>
+      <c r="O40" s="86"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="87"/>
       <c r="S40" s="64"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="33"/>
       <c r="C41" s="24" t="s">
         <v>80</v>
@@ -3278,11 +3307,11 @@
       <c r="O41" s="8"/>
       <c r="P41" s="57"/>
       <c r="Q41" s="57"/>
-      <c r="R41" s="11"/>
+      <c r="R41" s="57"/>
       <c r="S41" s="20"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B42" s="35"/>
       <c r="C42" s="36" t="s">
         <v>81</v>
@@ -3290,37 +3319,30 @@
       <c r="D42" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="73"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="77"/>
-      <c r="Q42" s="77"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
       <c r="R42" s="58"/>
       <c r="S42" s="55"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="S1:S3"/>
@@ -3329,6 +3351,13 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:N1"/>
     <mergeCell ref="O1:R1"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3346,6 +3375,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100A3CC7FB96F988F4F99D9833BD95DBEA7" ma:contentTypeVersion="9" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="67e7c7c7fbc54baacaedb163b77dd7fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b3a021b-2e8e-4089-aee5-2d2f9d177590" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67e142d3425cc82a59af7db60593a54c" ns2:_="">
     <xsd:import namespace="9b3a021b-2e8e-4089-aee5-2d2f9d177590"/>
@@ -3523,12 +3558,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86355AE3-FE92-428A-8953-718B6FBDB714}">
   <ds:schemaRefs>
@@ -3538,6 +3567,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5164E04E-0716-41A5-92A1-5892A832C170}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="9b3a021b-2e8e-4089-aee5-2d2f9d177590"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D515771-08F2-4F34-9C51-1BE39D2CFE75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3553,20 +3598,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5164E04E-0716-41A5-92A1-5892A832C170}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b3a021b-2e8e-4089-aee5-2d2f9d177590"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>